--- a/biology/Médecine/American_association_of_blood_banks/American_association_of_blood_banks.xlsx
+++ b/biology/Médecine/American_association_of_blood_banks/American_association_of_blood_banks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'AABB  est un corps professionnel et un organisme de normalisation fondé en 1947, sous le nom de l’Association américaine des banques du sang, en anglais : American Association of Blood Banks. Le nom de l'organisation a été changé en AABB au début de 2005 pour marquer les changements en envergure et opérations. AABB est maintenant internationale avec des membres dans 80 pays et a pris la décision d'inclure tout ce qui concerne la médecine de la transfusion ainsi que les thérapies cellulaires, spécialement celles basées sur les cellules souches hématopoïétiques.
 L'AABB travaille de très près avec la FDA américaine et fournit des contributions techniques pour le développement des régulations du sang. Alors que le fait d'être membre n'est pas rigoureusement nécessaire, toutes les grandes banques du sang des États-Unis sont virtuellement accrédités par l'AABB. Plus de 80 pour cent des services de transfusion hospitaliers et similaires aux États-Unis sont membres.
